--- a/data/pca/factorExposure/factorExposure_2012-05-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-08.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0177149318356972</v>
+        <v>0.01876220736576714</v>
       </c>
       <c r="C2">
-        <v>-0.03543671166784015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02737990486557158</v>
+      </c>
+      <c r="D2">
+        <v>0.004658187047189627</v>
+      </c>
+      <c r="E2">
+        <v>-0.02224764691652648</v>
+      </c>
+      <c r="F2">
+        <v>0.009879459577559061</v>
+      </c>
+      <c r="G2">
+        <v>0.01195762420649051</v>
+      </c>
+      <c r="H2">
+        <v>0.04916802919293095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07194547973909216</v>
+        <v>0.08193928063823407</v>
       </c>
       <c r="C4">
-        <v>-0.06201767441162283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04096451300062858</v>
+      </c>
+      <c r="D4">
+        <v>-0.06754266163382454</v>
+      </c>
+      <c r="E4">
+        <v>-0.001358313936065121</v>
+      </c>
+      <c r="F4">
+        <v>0.03086099679239544</v>
+      </c>
+      <c r="G4">
+        <v>-5.878556351591917e-05</v>
+      </c>
+      <c r="H4">
+        <v>-0.04213802764787693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0998129222158783</v>
+        <v>0.1172016494234186</v>
       </c>
       <c r="C6">
-        <v>-0.06581727419765318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04195588457146616</v>
+      </c>
+      <c r="D6">
+        <v>-0.01027146841152689</v>
+      </c>
+      <c r="E6">
+        <v>0.005455997036746446</v>
+      </c>
+      <c r="F6">
+        <v>0.05862992357240446</v>
+      </c>
+      <c r="G6">
+        <v>0.01839548705067441</v>
+      </c>
+      <c r="H6">
+        <v>0.06620108459908894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0489119903314947</v>
+        <v>0.06052797146227581</v>
       </c>
       <c r="C7">
-        <v>-0.02906649986817924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01947216658961913</v>
+      </c>
+      <c r="D7">
+        <v>-0.04056771152962915</v>
+      </c>
+      <c r="E7">
+        <v>-0.0219057387709482</v>
+      </c>
+      <c r="F7">
+        <v>0.03764194377945645</v>
+      </c>
+      <c r="G7">
+        <v>-0.04002124020745156</v>
+      </c>
+      <c r="H7">
+        <v>-0.0261569126636949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03482154067803159</v>
+        <v>0.03864007726025515</v>
       </c>
       <c r="C8">
-        <v>-0.02091224662407999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01137196155162744</v>
+      </c>
+      <c r="D8">
+        <v>-0.03445503785369269</v>
+      </c>
+      <c r="E8">
+        <v>-0.009660704735878814</v>
+      </c>
+      <c r="F8">
+        <v>0.04329287102916032</v>
+      </c>
+      <c r="G8">
+        <v>0.03152869285544583</v>
+      </c>
+      <c r="H8">
+        <v>0.008630412941819562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06676955710690728</v>
+        <v>0.07550745044095611</v>
       </c>
       <c r="C9">
-        <v>-0.04835557766068453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02852443042953527</v>
+      </c>
+      <c r="D9">
+        <v>-0.06160839294648263</v>
+      </c>
+      <c r="E9">
+        <v>-0.02190776452405412</v>
+      </c>
+      <c r="F9">
+        <v>0.03997639347668521</v>
+      </c>
+      <c r="G9">
+        <v>0.001952345493860129</v>
+      </c>
+      <c r="H9">
+        <v>-0.05945947682088314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0302894049376825</v>
+        <v>0.03750890177330389</v>
       </c>
       <c r="C10">
-        <v>-0.03157065273607332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03224686287604473</v>
+      </c>
+      <c r="D10">
+        <v>0.1727137766775725</v>
+      </c>
+      <c r="E10">
+        <v>-0.0429351875309715</v>
+      </c>
+      <c r="F10">
+        <v>0.04372312125571137</v>
+      </c>
+      <c r="G10">
+        <v>-0.04143754604322372</v>
+      </c>
+      <c r="H10">
+        <v>0.04071241610141148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06778971926851632</v>
+        <v>0.07398163566266507</v>
       </c>
       <c r="C11">
-        <v>-0.05186465481102785</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03034150439677791</v>
+      </c>
+      <c r="D11">
+        <v>-0.06068215945933681</v>
+      </c>
+      <c r="E11">
+        <v>0.01226899032887937</v>
+      </c>
+      <c r="F11">
+        <v>0.02614062028212788</v>
+      </c>
+      <c r="G11">
+        <v>-0.008026027926945775</v>
+      </c>
+      <c r="H11">
+        <v>-0.08953505655647531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05413235922870065</v>
+        <v>0.06314914481361859</v>
       </c>
       <c r="C12">
-        <v>-0.05337278623324074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03676391970045657</v>
+      </c>
+      <c r="D12">
+        <v>-0.04408602976144839</v>
+      </c>
+      <c r="E12">
+        <v>-0.008234320659491229</v>
+      </c>
+      <c r="F12">
+        <v>0.01997884367254163</v>
+      </c>
+      <c r="G12">
+        <v>-0.0007902178829578609</v>
+      </c>
+      <c r="H12">
+        <v>-0.05647723959562051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05894631438178809</v>
+        <v>0.06382677026870452</v>
       </c>
       <c r="C13">
-        <v>-0.04731963457133907</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02804676052660887</v>
+      </c>
+      <c r="D13">
+        <v>-0.03853433997701323</v>
+      </c>
+      <c r="E13">
+        <v>-0.0007436203387873713</v>
+      </c>
+      <c r="F13">
+        <v>0.002170406679793619</v>
+      </c>
+      <c r="G13">
+        <v>-0.004050441331552124</v>
+      </c>
+      <c r="H13">
+        <v>-0.05687914615490507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03173252470443984</v>
+        <v>0.04139821642644941</v>
       </c>
       <c r="C14">
-        <v>-0.03117642278082609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02472806772763799</v>
+      </c>
+      <c r="D14">
+        <v>-0.004226539987362115</v>
+      </c>
+      <c r="E14">
+        <v>-0.02327550506603467</v>
+      </c>
+      <c r="F14">
+        <v>0.01735238339962108</v>
+      </c>
+      <c r="G14">
+        <v>0.010173328702103</v>
+      </c>
+      <c r="H14">
+        <v>-0.06270107344359105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03842332473344982</v>
+        <v>0.03979598051873631</v>
       </c>
       <c r="C15">
-        <v>-0.01186918198096645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002645913756024514</v>
+      </c>
+      <c r="D15">
+        <v>-0.005383810721080176</v>
+      </c>
+      <c r="E15">
+        <v>-0.04098752499995365</v>
+      </c>
+      <c r="F15">
+        <v>0.0019904790670582</v>
+      </c>
+      <c r="G15">
+        <v>0.02397096753579193</v>
+      </c>
+      <c r="H15">
+        <v>-0.05371250528625549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0571848649192244</v>
+        <v>0.06614710075172303</v>
       </c>
       <c r="C16">
-        <v>-0.04547897529862893</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02975455603702499</v>
+      </c>
+      <c r="D16">
+        <v>-0.06029482023780321</v>
+      </c>
+      <c r="E16">
+        <v>-0.001048792228171739</v>
+      </c>
+      <c r="F16">
+        <v>0.02505385903004015</v>
+      </c>
+      <c r="G16">
+        <v>-0.005130655218961467</v>
+      </c>
+      <c r="H16">
+        <v>-0.05563334159178308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06102244055895447</v>
+        <v>0.06192305374290107</v>
       </c>
       <c r="C20">
-        <v>-0.03945849077296419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01843080446077938</v>
+      </c>
+      <c r="D20">
+        <v>-0.05091933479395268</v>
+      </c>
+      <c r="E20">
+        <v>-0.01731249075549963</v>
+      </c>
+      <c r="F20">
+        <v>0.02430431691176042</v>
+      </c>
+      <c r="G20">
+        <v>-0.0005167935087733896</v>
+      </c>
+      <c r="H20">
+        <v>-0.05359703707069604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02411491841340933</v>
+        <v>0.02466250000566851</v>
       </c>
       <c r="C21">
-        <v>-0.001303822998083891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006737503595137743</v>
+      </c>
+      <c r="D21">
+        <v>-0.03725777595900701</v>
+      </c>
+      <c r="E21">
+        <v>-0.07623661335773271</v>
+      </c>
+      <c r="F21">
+        <v>-0.011356777030146</v>
+      </c>
+      <c r="G21">
+        <v>0.004560159177742062</v>
+      </c>
+      <c r="H21">
+        <v>0.03125694466649011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06865049862677074</v>
+        <v>0.06423004542990934</v>
       </c>
       <c r="C22">
-        <v>-0.06835118749618921</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04040575060619845</v>
+      </c>
+      <c r="D22">
+        <v>-0.09663719773400836</v>
+      </c>
+      <c r="E22">
+        <v>-0.6141550875396673</v>
+      </c>
+      <c r="F22">
+        <v>-0.1223589575266156</v>
+      </c>
+      <c r="G22">
+        <v>-0.02802628671655155</v>
+      </c>
+      <c r="H22">
+        <v>0.1407076812923297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06963723145463492</v>
+        <v>0.06488633329263907</v>
       </c>
       <c r="C23">
-        <v>-0.06750969179692613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03933315614340945</v>
+      </c>
+      <c r="D23">
+        <v>-0.09753561307921105</v>
+      </c>
+      <c r="E23">
+        <v>-0.6132520459358002</v>
+      </c>
+      <c r="F23">
+        <v>-0.1215307538812664</v>
+      </c>
+      <c r="G23">
+        <v>-0.02664765064071259</v>
+      </c>
+      <c r="H23">
+        <v>0.1359935630063775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06639353216900845</v>
+        <v>0.07577938090439516</v>
       </c>
       <c r="C24">
-        <v>-0.05393224686647415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03438335366910729</v>
+      </c>
+      <c r="D24">
+        <v>-0.05770839294882386</v>
+      </c>
+      <c r="E24">
+        <v>-0.009038271692878169</v>
+      </c>
+      <c r="F24">
+        <v>0.035079657748432</v>
+      </c>
+      <c r="G24">
+        <v>0.004109951780107028</v>
+      </c>
+      <c r="H24">
+        <v>-0.06785324371117724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06676250856641942</v>
+        <v>0.0737574184696668</v>
       </c>
       <c r="C25">
-        <v>-0.06014356203291014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03879830440172959</v>
+      </c>
+      <c r="D25">
+        <v>-0.0538502950305105</v>
+      </c>
+      <c r="E25">
+        <v>-0.01089179709784148</v>
+      </c>
+      <c r="F25">
+        <v>0.02973592067579159</v>
+      </c>
+      <c r="G25">
+        <v>0.01670069123570113</v>
+      </c>
+      <c r="H25">
+        <v>-0.07282637476304564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04116736631585768</v>
+        <v>0.04499004042485408</v>
       </c>
       <c r="C26">
-        <v>-0.01262446946832027</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.003404221114022971</v>
+      </c>
+      <c r="D26">
+        <v>-0.02619812146849665</v>
+      </c>
+      <c r="E26">
+        <v>-0.03712671909230321</v>
+      </c>
+      <c r="F26">
+        <v>0.02575251757511423</v>
+      </c>
+      <c r="G26">
+        <v>-0.004864758591041267</v>
+      </c>
+      <c r="H26">
+        <v>-0.06492632794847401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05733318649585719</v>
+        <v>0.07309004813504737</v>
       </c>
       <c r="C28">
-        <v>-0.07047723406162126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.06863326963775494</v>
+      </c>
+      <c r="D28">
+        <v>0.3156251135654246</v>
+      </c>
+      <c r="E28">
+        <v>-0.03377603149925925</v>
+      </c>
+      <c r="F28">
+        <v>0.05821220659351515</v>
+      </c>
+      <c r="G28">
+        <v>0.02574765229959558</v>
+      </c>
+      <c r="H28">
+        <v>0.002777521034423339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03890578493647161</v>
+        <v>0.04668371985909248</v>
       </c>
       <c r="C29">
-        <v>-0.03141590894145994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02307793354374717</v>
+      </c>
+      <c r="D29">
+        <v>-0.006127382170100493</v>
+      </c>
+      <c r="E29">
+        <v>-0.04502225394567024</v>
+      </c>
+      <c r="F29">
+        <v>0.009562510746735241</v>
+      </c>
+      <c r="G29">
+        <v>-0.007053944705200967</v>
+      </c>
+      <c r="H29">
+        <v>-0.09355381004180792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1173387715010614</v>
+        <v>0.1308577276238543</v>
       </c>
       <c r="C30">
-        <v>-0.1000767167844806</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06238395536507993</v>
+      </c>
+      <c r="D30">
+        <v>-0.08547837244410922</v>
+      </c>
+      <c r="E30">
+        <v>-0.04293094893339906</v>
+      </c>
+      <c r="F30">
+        <v>0.006361473549517871</v>
+      </c>
+      <c r="G30">
+        <v>0.03555699590609989</v>
+      </c>
+      <c r="H30">
+        <v>0.02275363444073083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03955281311737129</v>
+        <v>0.04552819089639102</v>
       </c>
       <c r="C31">
-        <v>-0.02205767518071698</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01207959104833926</v>
+      </c>
+      <c r="D31">
+        <v>-0.02452230243346228</v>
+      </c>
+      <c r="E31">
+        <v>-0.02402720822048576</v>
+      </c>
+      <c r="F31">
+        <v>0.01401535593596567</v>
+      </c>
+      <c r="G31">
+        <v>-0.01920918825284118</v>
+      </c>
+      <c r="H31">
+        <v>-0.0725071975319224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03463000384776068</v>
+        <v>0.03415622067639159</v>
       </c>
       <c r="C32">
-        <v>-0.02283656429252584</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01246863090952652</v>
+      </c>
+      <c r="D32">
+        <v>-0.01442762580420337</v>
+      </c>
+      <c r="E32">
+        <v>-0.06841834422099966</v>
+      </c>
+      <c r="F32">
+        <v>0.00246065862729095</v>
+      </c>
+      <c r="G32">
+        <v>0.03218253612027959</v>
+      </c>
+      <c r="H32">
+        <v>-0.04956279552757516</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07558003912642298</v>
+        <v>0.09277043423613288</v>
       </c>
       <c r="C33">
-        <v>-0.04796057041538632</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03026073400492987</v>
+      </c>
+      <c r="D33">
+        <v>-0.05610520800915638</v>
+      </c>
+      <c r="E33">
+        <v>-0.01629905825917909</v>
+      </c>
+      <c r="F33">
+        <v>0.008902934807998095</v>
+      </c>
+      <c r="G33">
+        <v>-0.01347117165334798</v>
+      </c>
+      <c r="H33">
+        <v>-0.07074730004794391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05351929324710784</v>
+        <v>0.05834162625759475</v>
       </c>
       <c r="C34">
-        <v>-0.03535520468370225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01827321277750902</v>
+      </c>
+      <c r="D34">
+        <v>-0.05582192464943082</v>
+      </c>
+      <c r="E34">
+        <v>-0.002081854015491048</v>
+      </c>
+      <c r="F34">
+        <v>0.01675120553856798</v>
+      </c>
+      <c r="G34">
+        <v>0.005289731228611409</v>
+      </c>
+      <c r="H34">
+        <v>-0.05312542621452441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03630458714720484</v>
+        <v>0.04057518622449585</v>
       </c>
       <c r="C35">
-        <v>-0.01392081503297233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.00525130437991858</v>
+      </c>
+      <c r="D35">
+        <v>-0.01120114722907574</v>
+      </c>
+      <c r="E35">
+        <v>-0.02187500217017533</v>
+      </c>
+      <c r="F35">
+        <v>-0.005342087318067177</v>
+      </c>
+      <c r="G35">
+        <v>-0.01233421088898913</v>
+      </c>
+      <c r="H35">
+        <v>-0.03485990309860026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01914906154504811</v>
+        <v>0.02509373901026649</v>
       </c>
       <c r="C36">
-        <v>-0.01568279221696121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01112343482938012</v>
+      </c>
+      <c r="D36">
+        <v>-0.01631781965654912</v>
+      </c>
+      <c r="E36">
+        <v>-0.03835122859805028</v>
+      </c>
+      <c r="F36">
+        <v>0.02034774414654363</v>
+      </c>
+      <c r="G36">
+        <v>-0.01126748352811659</v>
+      </c>
+      <c r="H36">
+        <v>-0.05601961078234623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03837490349163465</v>
+        <v>0.04179268048557309</v>
       </c>
       <c r="C38">
-        <v>-0.006373775702451429</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.001380166035232326</v>
+      </c>
+      <c r="D38">
+        <v>-0.02002540524774541</v>
+      </c>
+      <c r="E38">
+        <v>-0.05794487639677746</v>
+      </c>
+      <c r="F38">
+        <v>-0.005774242788763973</v>
+      </c>
+      <c r="G38">
+        <v>0.01821915211514936</v>
+      </c>
+      <c r="H38">
+        <v>-0.0276857662521578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08757817551208968</v>
+        <v>0.1018164618333752</v>
       </c>
       <c r="C39">
-        <v>-0.08173543330101574</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05471398313510197</v>
+      </c>
+      <c r="D39">
+        <v>-0.07104201359631239</v>
+      </c>
+      <c r="E39">
+        <v>0.01371410880974989</v>
+      </c>
+      <c r="F39">
+        <v>0.01119240251505258</v>
+      </c>
+      <c r="G39">
+        <v>0.02100195407607168</v>
+      </c>
+      <c r="H39">
+        <v>-0.05469052175125691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06855677863151502</v>
+        <v>0.07036760079158211</v>
       </c>
       <c r="C40">
-        <v>-0.05393141713263443</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03035009236235184</v>
+      </c>
+      <c r="D40">
+        <v>-0.007143760757389484</v>
+      </c>
+      <c r="E40">
+        <v>-0.02088077165358152</v>
+      </c>
+      <c r="F40">
+        <v>-0.0507409646236769</v>
+      </c>
+      <c r="G40">
+        <v>0.065093920955225</v>
+      </c>
+      <c r="H40">
+        <v>0.09565322355489757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.039404970542434</v>
+        <v>0.04196273725899257</v>
       </c>
       <c r="C41">
-        <v>-0.01018844962170951</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.00138852906515062</v>
+      </c>
+      <c r="D41">
+        <v>-0.03888118726056378</v>
+      </c>
+      <c r="E41">
+        <v>-0.007300708161582869</v>
+      </c>
+      <c r="F41">
+        <v>-0.01059576078808663</v>
+      </c>
+      <c r="G41">
+        <v>0.01252045047360048</v>
+      </c>
+      <c r="H41">
+        <v>-0.03596192513484411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04410220253364419</v>
+        <v>0.05280288007493039</v>
       </c>
       <c r="C43">
-        <v>-0.02872700964204913</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01821617200474096</v>
+      </c>
+      <c r="D43">
+        <v>-0.0257429882860516</v>
+      </c>
+      <c r="E43">
+        <v>-0.01742641561667216</v>
+      </c>
+      <c r="F43">
+        <v>0.009918563728663439</v>
+      </c>
+      <c r="G43">
+        <v>-0.005420346225679028</v>
+      </c>
+      <c r="H43">
+        <v>-0.05115064018392001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08938447934411491</v>
+        <v>0.09074177693551172</v>
       </c>
       <c r="C44">
-        <v>-0.1019513440219005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06697668228014439</v>
+      </c>
+      <c r="D44">
+        <v>-0.06107926984737441</v>
+      </c>
+      <c r="E44">
+        <v>-0.0946029197097631</v>
+      </c>
+      <c r="F44">
+        <v>0.0462056527732338</v>
+      </c>
+      <c r="G44">
+        <v>0.03002926409613732</v>
+      </c>
+      <c r="H44">
+        <v>0.005214906457833885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02457655923909598</v>
+        <v>0.03060498560756753</v>
       </c>
       <c r="C46">
-        <v>-0.01427813957174996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009310558445831695</v>
+      </c>
+      <c r="D46">
+        <v>-0.03194924772873031</v>
+      </c>
+      <c r="E46">
+        <v>-0.0195720454261706</v>
+      </c>
+      <c r="F46">
+        <v>0.02112750205870867</v>
+      </c>
+      <c r="G46">
+        <v>0.003852259013418251</v>
+      </c>
+      <c r="H46">
+        <v>-0.04051169206070648</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02624819228868784</v>
+        <v>0.03140034703756896</v>
       </c>
       <c r="C47">
-        <v>-0.02138820757248686</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01404322235283102</v>
+      </c>
+      <c r="D47">
+        <v>-0.0157476335387749</v>
+      </c>
+      <c r="E47">
+        <v>-0.04844480173712117</v>
+      </c>
+      <c r="F47">
+        <v>0.01699242622720767</v>
+      </c>
+      <c r="G47">
+        <v>-0.03601357065831313</v>
+      </c>
+      <c r="H47">
+        <v>-0.03029987937777963</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02952678130117318</v>
+        <v>0.03540410844010494</v>
       </c>
       <c r="C48">
-        <v>-0.02036916444342428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01209549616863412</v>
+      </c>
+      <c r="D48">
+        <v>-0.028315202944276</v>
+      </c>
+      <c r="E48">
+        <v>-0.04106330214098668</v>
+      </c>
+      <c r="F48">
+        <v>0.008491227572167278</v>
+      </c>
+      <c r="G48">
+        <v>0.008938168872802136</v>
+      </c>
+      <c r="H48">
+        <v>-0.06096628652954751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1543770631590656</v>
+        <v>0.1871576439719361</v>
       </c>
       <c r="C49">
-        <v>-0.09085687019661051</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05754175580136357</v>
+      </c>
+      <c r="D49">
+        <v>-0.01931864590670077</v>
+      </c>
+      <c r="E49">
+        <v>0.1293668489811445</v>
+      </c>
+      <c r="F49">
+        <v>0.03920579261368424</v>
+      </c>
+      <c r="G49">
+        <v>-0.05195110319554382</v>
+      </c>
+      <c r="H49">
+        <v>0.2495905638090703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03571297436038105</v>
+        <v>0.04445621330341516</v>
       </c>
       <c r="C50">
-        <v>-0.02585835071232483</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01861206397796315</v>
+      </c>
+      <c r="D50">
+        <v>-0.03526377383390224</v>
+      </c>
+      <c r="E50">
+        <v>-0.04821299389811602</v>
+      </c>
+      <c r="F50">
+        <v>0.02291226348181581</v>
+      </c>
+      <c r="G50">
+        <v>-0.01476831568704146</v>
+      </c>
+      <c r="H50">
+        <v>-0.07219047664811935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02393182044602773</v>
+        <v>0.02470586878468132</v>
       </c>
       <c r="C51">
-        <v>-0.01341709907932139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.007496602993971885</v>
+      </c>
+      <c r="D51">
+        <v>-0.02378601824490263</v>
+      </c>
+      <c r="E51">
+        <v>-0.01342507470008716</v>
+      </c>
+      <c r="F51">
+        <v>0.01146628577356381</v>
+      </c>
+      <c r="G51">
+        <v>0.002914014968282247</v>
+      </c>
+      <c r="H51">
+        <v>-0.00259875245320427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1413332688671108</v>
+        <v>0.1602870590349851</v>
       </c>
       <c r="C53">
-        <v>-0.09197673749309269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05999339397833233</v>
+      </c>
+      <c r="D53">
+        <v>-0.01920762010056146</v>
+      </c>
+      <c r="E53">
+        <v>0.03550675239544699</v>
+      </c>
+      <c r="F53">
+        <v>0.01424701906092206</v>
+      </c>
+      <c r="G53">
+        <v>-0.001379378171131962</v>
+      </c>
+      <c r="H53">
+        <v>-0.1497945745776753</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05394069519544128</v>
+        <v>0.05702251428248799</v>
       </c>
       <c r="C54">
-        <v>-0.0268430437619604</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01212752195799004</v>
+      </c>
+      <c r="D54">
+        <v>-0.02134764771005802</v>
+      </c>
+      <c r="E54">
+        <v>-0.05001944309208638</v>
+      </c>
+      <c r="F54">
+        <v>0.01373087137959127</v>
+      </c>
+      <c r="G54">
+        <v>0.01232168635398257</v>
+      </c>
+      <c r="H54">
+        <v>-0.06649696557238455</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09332266507108777</v>
+        <v>0.1011622020170793</v>
       </c>
       <c r="C55">
-        <v>-0.06330763173376561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03989108618614715</v>
+      </c>
+      <c r="D55">
+        <v>-0.02565653150543108</v>
+      </c>
+      <c r="E55">
+        <v>-0.009522510078933484</v>
+      </c>
+      <c r="F55">
+        <v>0.01684531478774033</v>
+      </c>
+      <c r="G55">
+        <v>0.00730990876810964</v>
+      </c>
+      <c r="H55">
+        <v>-0.1382123287266055</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.140537378179811</v>
+        <v>0.1608914876264369</v>
       </c>
       <c r="C56">
-        <v>-0.1042502630550158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.0696831879166644</v>
+      </c>
+      <c r="D56">
+        <v>-0.01744418827750186</v>
+      </c>
+      <c r="E56">
+        <v>0.03622590842994557</v>
+      </c>
+      <c r="F56">
+        <v>0.03270049523638199</v>
+      </c>
+      <c r="G56">
+        <v>-0.01328843006283516</v>
+      </c>
+      <c r="H56">
+        <v>-0.1580976227170877</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1179947607132987</v>
+        <v>0.09788392103380665</v>
       </c>
       <c r="C58">
-        <v>-0.01993435903501261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.02360350257145155</v>
+      </c>
+      <c r="D58">
+        <v>-0.05504430405943328</v>
+      </c>
+      <c r="E58">
+        <v>-0.1790153791636308</v>
+      </c>
+      <c r="F58">
+        <v>0.02173038751885597</v>
+      </c>
+      <c r="G58">
+        <v>-0.04399919894505813</v>
+      </c>
+      <c r="H58">
+        <v>0.1877920142274773</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1131662016101595</v>
+        <v>0.1429169600890957</v>
       </c>
       <c r="C59">
-        <v>-0.08061251770161086</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.07494557104339236</v>
+      </c>
+      <c r="D59">
+        <v>0.3606734980571933</v>
+      </c>
+      <c r="E59">
+        <v>-0.0441221935814019</v>
+      </c>
+      <c r="F59">
+        <v>0.007610895829134914</v>
+      </c>
+      <c r="G59">
+        <v>-0.03971918231801599</v>
+      </c>
+      <c r="H59">
+        <v>0.009234400863155643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1907236085429413</v>
+        <v>0.2249908791422251</v>
       </c>
       <c r="C60">
-        <v>-0.1165709386757945</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07601955376109717</v>
+      </c>
+      <c r="D60">
+        <v>-0.02445116153973686</v>
+      </c>
+      <c r="E60">
+        <v>0.07092970474870192</v>
+      </c>
+      <c r="F60">
+        <v>0.04735505467817688</v>
+      </c>
+      <c r="G60">
+        <v>0.02305795118505957</v>
+      </c>
+      <c r="H60">
+        <v>0.151652494795009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07561515135801886</v>
+        <v>0.08663926793424651</v>
       </c>
       <c r="C61">
-        <v>-0.06230776416118742</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04126169407391615</v>
+      </c>
+      <c r="D61">
+        <v>-0.05139239731089763</v>
+      </c>
+      <c r="E61">
+        <v>0.014952625046201</v>
+      </c>
+      <c r="F61">
+        <v>0.008185315687757591</v>
+      </c>
+      <c r="G61">
+        <v>-0.01050093329042029</v>
+      </c>
+      <c r="H61">
+        <v>-0.07035398314995611</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.121875155344934</v>
+        <v>0.1402535437212551</v>
       </c>
       <c r="C62">
-        <v>-0.07891490939573313</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.0506320297785994</v>
+      </c>
+      <c r="D62">
+        <v>-0.02245203092457366</v>
+      </c>
+      <c r="E62">
+        <v>0.05282418323432924</v>
+      </c>
+      <c r="F62">
+        <v>0.006777328942199022</v>
+      </c>
+      <c r="G62">
+        <v>0.03191495558751471</v>
+      </c>
+      <c r="H62">
+        <v>-0.1542245636113633</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05187257149300852</v>
+        <v>0.05129230574999855</v>
       </c>
       <c r="C63">
-        <v>-0.03217234768787147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01622366744328675</v>
+      </c>
+      <c r="D63">
+        <v>-0.02502161102547358</v>
+      </c>
+      <c r="E63">
+        <v>-0.05072028780086271</v>
+      </c>
+      <c r="F63">
+        <v>0.005497030507591906</v>
+      </c>
+      <c r="G63">
+        <v>0.03785683811579105</v>
+      </c>
+      <c r="H63">
+        <v>-0.08273679994957385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1055107790099247</v>
+        <v>0.1113602369639574</v>
       </c>
       <c r="C64">
-        <v>-0.04168387320302774</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01407125527623913</v>
+      </c>
+      <c r="D64">
+        <v>-0.04583842193267802</v>
+      </c>
+      <c r="E64">
+        <v>-0.02528930127099649</v>
+      </c>
+      <c r="F64">
+        <v>0.05055841222140393</v>
+      </c>
+      <c r="G64">
+        <v>0.03471028148829405</v>
+      </c>
+      <c r="H64">
+        <v>-0.07436226443355853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1136247414466274</v>
+        <v>0.126637962899832</v>
       </c>
       <c r="C65">
-        <v>-0.06736828660676338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04153734266524394</v>
+      </c>
+      <c r="D65">
+        <v>-0.003690388388216337</v>
+      </c>
+      <c r="E65">
+        <v>-0.0004557839777894532</v>
+      </c>
+      <c r="F65">
+        <v>0.0654530742737854</v>
+      </c>
+      <c r="G65">
+        <v>0.03823469747359888</v>
+      </c>
+      <c r="H65">
+        <v>0.08147206797966193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1349964605019909</v>
+        <v>0.1540159992758134</v>
       </c>
       <c r="C66">
-        <v>-0.09115051409660353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05501219701265758</v>
+      </c>
+      <c r="D66">
+        <v>-0.1111404712057963</v>
+      </c>
+      <c r="E66">
+        <v>0.04980038700243229</v>
+      </c>
+      <c r="F66">
+        <v>0.02216508199965385</v>
+      </c>
+      <c r="G66">
+        <v>0.02394007990901404</v>
+      </c>
+      <c r="H66">
+        <v>-0.1245521498527826</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06989586776704076</v>
+        <v>0.07841790612511744</v>
       </c>
       <c r="C67">
-        <v>-0.02081751251518285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.007006753399087362</v>
+      </c>
+      <c r="D67">
+        <v>-0.03111807572521156</v>
+      </c>
+      <c r="E67">
+        <v>-0.02619867785612376</v>
+      </c>
+      <c r="F67">
+        <v>0.01490008778812411</v>
+      </c>
+      <c r="G67">
+        <v>-0.003648485511912784</v>
+      </c>
+      <c r="H67">
+        <v>-0.02520451281580065</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05837494385160614</v>
+        <v>0.06510747606070499</v>
       </c>
       <c r="C68">
-        <v>-0.04619433001457228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04264356712906263</v>
+      </c>
+      <c r="D68">
+        <v>0.2656032421423189</v>
+      </c>
+      <c r="E68">
+        <v>-0.04798217041182979</v>
+      </c>
+      <c r="F68">
+        <v>0.01508538819220372</v>
+      </c>
+      <c r="G68">
+        <v>-0.0133452344166414</v>
+      </c>
+      <c r="H68">
+        <v>-0.02019547530968241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04938488457480571</v>
+        <v>0.04825216436318081</v>
       </c>
       <c r="C69">
-        <v>-0.02387836344420161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.007147394290336569</v>
+      </c>
+      <c r="D69">
+        <v>-0.02074323550395532</v>
+      </c>
+      <c r="E69">
+        <v>-0.02508857158555719</v>
+      </c>
+      <c r="F69">
+        <v>-0.002570118742335701</v>
+      </c>
+      <c r="G69">
+        <v>-0.009866894039357074</v>
+      </c>
+      <c r="H69">
+        <v>-0.05898826909049303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005090149901949807</v>
+        <v>0.02171436301786665</v>
       </c>
       <c r="C70">
-        <v>0.003238358521636437</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0001579027118755705</v>
+      </c>
+      <c r="D70">
+        <v>-0.001367493737056046</v>
+      </c>
+      <c r="E70">
+        <v>0.02718288621316685</v>
+      </c>
+      <c r="F70">
+        <v>0.01994946083437312</v>
+      </c>
+      <c r="G70">
+        <v>-0.01857031520666422</v>
+      </c>
+      <c r="H70">
+        <v>0.05664003701544498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06118946213967579</v>
+        <v>0.06961183253861392</v>
       </c>
       <c r="C71">
-        <v>-0.04278447357747228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04088148992316293</v>
+      </c>
+      <c r="D71">
+        <v>0.295532933576536</v>
+      </c>
+      <c r="E71">
+        <v>-0.04411511008580505</v>
+      </c>
+      <c r="F71">
+        <v>0.04401714908530527</v>
+      </c>
+      <c r="G71">
+        <v>-0.005653166445921755</v>
+      </c>
+      <c r="H71">
+        <v>-0.01453227971891268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1345010625452139</v>
+        <v>0.1533472933820512</v>
       </c>
       <c r="C72">
-        <v>-0.07192064622298365</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04181435378923457</v>
+      </c>
+      <c r="D72">
+        <v>0.004829145040445067</v>
+      </c>
+      <c r="E72">
+        <v>0.08720610768127893</v>
+      </c>
+      <c r="F72">
+        <v>-0.171969620354177</v>
+      </c>
+      <c r="G72">
+        <v>0.1096603264890396</v>
+      </c>
+      <c r="H72">
+        <v>-0.02245220531644179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2497595707288715</v>
+        <v>0.2798875331399808</v>
       </c>
       <c r="C73">
-        <v>-0.1430163068745238</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.0785113745381595</v>
+      </c>
+      <c r="D73">
+        <v>-0.09779601023457908</v>
+      </c>
+      <c r="E73">
+        <v>0.2013192655870485</v>
+      </c>
+      <c r="F73">
+        <v>0.08016818176772653</v>
+      </c>
+      <c r="G73">
+        <v>-0.1975862826641538</v>
+      </c>
+      <c r="H73">
+        <v>0.5571839079182198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07272120471660537</v>
+        <v>0.08907311791317123</v>
       </c>
       <c r="C74">
-        <v>-0.08293047091903234</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06265471244728255</v>
+      </c>
+      <c r="D74">
+        <v>-0.02840043349992772</v>
+      </c>
+      <c r="E74">
+        <v>0.005420587242382902</v>
+      </c>
+      <c r="F74">
+        <v>-0.01218120633074058</v>
+      </c>
+      <c r="G74">
+        <v>-0.03582380850606211</v>
+      </c>
+      <c r="H74">
+        <v>-0.123326786683798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09202248848337964</v>
+        <v>0.1017678469567777</v>
       </c>
       <c r="C75">
-        <v>-0.05893382980436725</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03108786741459068</v>
+      </c>
+      <c r="D75">
+        <v>-0.01096816512378805</v>
+      </c>
+      <c r="E75">
+        <v>-0.002560319824981799</v>
+      </c>
+      <c r="F75">
+        <v>0.04411206288952301</v>
+      </c>
+      <c r="G75">
+        <v>-0.01636548333758099</v>
+      </c>
+      <c r="H75">
+        <v>-0.1168110187054184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1188756034346801</v>
+        <v>0.1359346878011243</v>
       </c>
       <c r="C76">
-        <v>-0.09905323826018533</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06686794105902188</v>
+      </c>
+      <c r="D76">
+        <v>-0.05366018345059693</v>
+      </c>
+      <c r="E76">
+        <v>-0.01194858869283874</v>
+      </c>
+      <c r="F76">
+        <v>0.05583871523237403</v>
+      </c>
+      <c r="G76">
+        <v>-0.005724375326030824</v>
+      </c>
+      <c r="H76">
+        <v>-0.1549202789104664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1179560401484147</v>
+        <v>0.1145650977450509</v>
       </c>
       <c r="C77">
-        <v>-0.05346009602453831</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.0153569095137415</v>
+      </c>
+      <c r="D77">
+        <v>-0.02676035325927414</v>
+      </c>
+      <c r="E77">
+        <v>0.02412445381529001</v>
+      </c>
+      <c r="F77">
+        <v>0.2068865075718517</v>
+      </c>
+      <c r="G77">
+        <v>0.8840759714150851</v>
+      </c>
+      <c r="H77">
+        <v>0.1738015433595236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09022840333574721</v>
+        <v>0.1225170700781398</v>
       </c>
       <c r="C78">
-        <v>-0.04964828646528879</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03614950866416414</v>
+      </c>
+      <c r="D78">
+        <v>-0.08888247541665105</v>
+      </c>
+      <c r="E78">
+        <v>-0.06148948421455135</v>
+      </c>
+      <c r="F78">
+        <v>0.01994795961257395</v>
+      </c>
+      <c r="G78">
+        <v>0.04266319031003425</v>
+      </c>
+      <c r="H78">
+        <v>0.08944168643595334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1373732812061282</v>
+        <v>0.149423349024911</v>
       </c>
       <c r="C79">
-        <v>-0.09839906738389936</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.05738961545892977</v>
+      </c>
+      <c r="D79">
+        <v>-0.02741981153826276</v>
+      </c>
+      <c r="E79">
+        <v>0.02045311577474644</v>
+      </c>
+      <c r="F79">
+        <v>0.01225039279657451</v>
+      </c>
+      <c r="G79">
+        <v>-0.01634213114847012</v>
+      </c>
+      <c r="H79">
+        <v>-0.1545155790770945</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04099446854528146</v>
+        <v>0.04169183959838093</v>
       </c>
       <c r="C80">
-        <v>-0.0182197019765207</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006343394540340924</v>
+      </c>
+      <c r="D80">
+        <v>-0.02737236056132934</v>
+      </c>
+      <c r="E80">
+        <v>0.004859435437261006</v>
+      </c>
+      <c r="F80">
+        <v>-0.01362836064317408</v>
+      </c>
+      <c r="G80">
+        <v>-0.03858197110703337</v>
+      </c>
+      <c r="H80">
+        <v>-0.03903542443167356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1138417144584898</v>
+        <v>0.1200887242996696</v>
       </c>
       <c r="C81">
-        <v>-0.07216054345837716</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03758950960146098</v>
+      </c>
+      <c r="D81">
+        <v>-0.02513084818706912</v>
+      </c>
+      <c r="E81">
+        <v>-0.00114585573704555</v>
+      </c>
+      <c r="F81">
+        <v>0.02174996964517469</v>
+      </c>
+      <c r="G81">
+        <v>-0.05052323406428445</v>
+      </c>
+      <c r="H81">
+        <v>-0.183109288276732</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1193766364004905</v>
+        <v>0.1290411125185096</v>
       </c>
       <c r="C82">
-        <v>-0.08591601582096174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05332784922035989</v>
+      </c>
+      <c r="D82">
+        <v>-0.03007702533846637</v>
+      </c>
+      <c r="E82">
+        <v>0.0159432733699673</v>
+      </c>
+      <c r="F82">
+        <v>0.053646396349153</v>
+      </c>
+      <c r="G82">
+        <v>-0.05029547172361604</v>
+      </c>
+      <c r="H82">
+        <v>-0.1709179680942917</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07614135163477831</v>
+        <v>0.07967404979917338</v>
       </c>
       <c r="C83">
-        <v>-0.008132093605625536</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.01223837235218906</v>
+      </c>
+      <c r="D83">
+        <v>-0.03898891713696524</v>
+      </c>
+      <c r="E83">
+        <v>-0.009923906818045508</v>
+      </c>
+      <c r="F83">
+        <v>0.05119792435491686</v>
+      </c>
+      <c r="G83">
+        <v>-0.07878610632891268</v>
+      </c>
+      <c r="H83">
+        <v>0.05046333415034917</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02545829783747138</v>
+        <v>0.03876940299655107</v>
       </c>
       <c r="C84">
-        <v>-0.02441368808645618</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02100731661984526</v>
+      </c>
+      <c r="D84">
+        <v>-0.03683529472534654</v>
+      </c>
+      <c r="E84">
+        <v>-0.02321422482017968</v>
+      </c>
+      <c r="F84">
+        <v>-0.04769712254707612</v>
+      </c>
+      <c r="G84">
+        <v>-0.06212448952750663</v>
+      </c>
+      <c r="H84">
+        <v>-0.01810943308523498</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1144250255252621</v>
+        <v>0.1184999960350311</v>
       </c>
       <c r="C85">
-        <v>-0.06906684578689067</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03424029417899153</v>
+      </c>
+      <c r="D85">
+        <v>-0.02999010632110075</v>
+      </c>
+      <c r="E85">
+        <v>-0.003093867299171471</v>
+      </c>
+      <c r="F85">
+        <v>0.05220370782392949</v>
+      </c>
+      <c r="G85">
+        <v>-0.01580524885966527</v>
+      </c>
+      <c r="H85">
+        <v>-0.1478385556470255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04684663168860673</v>
+        <v>0.05164070740440831</v>
       </c>
       <c r="C86">
-        <v>-0.02494680583494269</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.0121124441340007</v>
+      </c>
+      <c r="D86">
+        <v>-0.02609756284345553</v>
+      </c>
+      <c r="E86">
+        <v>-0.05503226645701573</v>
+      </c>
+      <c r="F86">
+        <v>0.02586991637572779</v>
+      </c>
+      <c r="G86">
+        <v>-0.00412474004788406</v>
+      </c>
+      <c r="H86">
+        <v>-0.009188646438966275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.118176679537385</v>
+        <v>0.1213766379337845</v>
       </c>
       <c r="C87">
-        <v>-0.07880537348882141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03903359761922976</v>
+      </c>
+      <c r="D87">
+        <v>-0.06985013027076707</v>
+      </c>
+      <c r="E87">
+        <v>-0.01655736941172209</v>
+      </c>
+      <c r="F87">
+        <v>0.01084673742747829</v>
+      </c>
+      <c r="G87">
+        <v>0.1003621915664051</v>
+      </c>
+      <c r="H87">
+        <v>-0.005570691319651012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05352293326438501</v>
+        <v>0.05878758566859055</v>
       </c>
       <c r="C88">
-        <v>-0.03075479470724641</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01724673809783579</v>
+      </c>
+      <c r="D88">
+        <v>-0.02327134776524865</v>
+      </c>
+      <c r="E88">
+        <v>-0.01702744485486029</v>
+      </c>
+      <c r="F88">
+        <v>0.009051290951341773</v>
+      </c>
+      <c r="G88">
+        <v>0.01136700615229071</v>
+      </c>
+      <c r="H88">
+        <v>-0.0656174828401782</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08307012237148929</v>
+        <v>0.1020038954057219</v>
       </c>
       <c r="C89">
-        <v>-0.06618955708850385</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.06436095513304467</v>
+      </c>
+      <c r="D89">
+        <v>0.3327059102932373</v>
+      </c>
+      <c r="E89">
+        <v>-0.07587548649097858</v>
+      </c>
+      <c r="F89">
+        <v>0.08188923684532375</v>
+      </c>
+      <c r="G89">
+        <v>-0.02063783901784914</v>
+      </c>
+      <c r="H89">
+        <v>0.009224558576690215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07413946618422351</v>
+        <v>0.08639489692442837</v>
       </c>
       <c r="C90">
-        <v>-0.05227916626431056</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.04886522907152972</v>
+      </c>
+      <c r="D90">
+        <v>0.3076031045041157</v>
+      </c>
+      <c r="E90">
+        <v>-0.06292833240488627</v>
+      </c>
+      <c r="F90">
+        <v>0.009553208237569064</v>
+      </c>
+      <c r="G90">
+        <v>-0.006732359421379012</v>
+      </c>
+      <c r="H90">
+        <v>-0.01550243323924467</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07896154098203656</v>
+        <v>0.0872602610849154</v>
       </c>
       <c r="C91">
-        <v>-0.06118228252657104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03727978981233491</v>
+      </c>
+      <c r="D91">
+        <v>-0.02902568726168663</v>
+      </c>
+      <c r="E91">
+        <v>-0.01324547899701573</v>
+      </c>
+      <c r="F91">
+        <v>0.005839256027279091</v>
+      </c>
+      <c r="G91">
+        <v>-0.04849047520090194</v>
+      </c>
+      <c r="H91">
+        <v>-0.07155977574725096</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08304372868169239</v>
+        <v>0.09526160049387074</v>
       </c>
       <c r="C92">
-        <v>-0.06659517560372401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06100448646896311</v>
+      </c>
+      <c r="D92">
+        <v>0.3484655423847616</v>
+      </c>
+      <c r="E92">
+        <v>-0.0550716695706609</v>
+      </c>
+      <c r="F92">
+        <v>0.03918613265636324</v>
+      </c>
+      <c r="G92">
+        <v>0.002596379027824008</v>
+      </c>
+      <c r="H92">
+        <v>-0.01908448444354083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06669390029504305</v>
+        <v>0.0840339142227757</v>
       </c>
       <c r="C93">
-        <v>-0.05894419872335666</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.05932693969691968</v>
+      </c>
+      <c r="D93">
+        <v>0.3061378013586578</v>
+      </c>
+      <c r="E93">
+        <v>-0.03660027974036724</v>
+      </c>
+      <c r="F93">
+        <v>0.04992445581309402</v>
+      </c>
+      <c r="G93">
+        <v>0.006752684157402628</v>
+      </c>
+      <c r="H93">
+        <v>0.007223990923468209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1248243190567906</v>
+        <v>0.1276752409705262</v>
       </c>
       <c r="C94">
-        <v>-0.07437045244398838</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03361212573489649</v>
+      </c>
+      <c r="D94">
+        <v>-0.0486149626164223</v>
+      </c>
+      <c r="E94">
+        <v>0.02044610090367995</v>
+      </c>
+      <c r="F94">
+        <v>0.02252398238234896</v>
+      </c>
+      <c r="G94">
+        <v>-0.04217614936556037</v>
+      </c>
+      <c r="H94">
+        <v>-0.0920354716438289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1152806976498615</v>
+        <v>0.1245423472684693</v>
       </c>
       <c r="C95">
-        <v>-0.04790448680267152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.01586202322341592</v>
+      </c>
+      <c r="D95">
+        <v>-0.05774684758691288</v>
+      </c>
+      <c r="E95">
+        <v>0.007093147166105979</v>
+      </c>
+      <c r="F95">
+        <v>0.03884352840465698</v>
+      </c>
+      <c r="G95">
+        <v>-0.00814490337256603</v>
+      </c>
+      <c r="H95">
+        <v>0.01112100295372666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2016125289102826</v>
+        <v>0.2157619942352957</v>
       </c>
       <c r="C97">
-        <v>-0.06153614334015711</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.01445574851049911</v>
+      </c>
+      <c r="D97">
+        <v>0.07126463972430329</v>
+      </c>
+      <c r="E97">
+        <v>0.1510307682635449</v>
+      </c>
+      <c r="F97">
+        <v>-0.9009600298505307</v>
+      </c>
+      <c r="G97">
+        <v>0.1484675871392793</v>
+      </c>
+      <c r="H97">
+        <v>0.008585366125370277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2395645060807766</v>
+        <v>0.2692547070416462</v>
       </c>
       <c r="C98">
-        <v>-0.1065172465413057</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.05037879166313048</v>
+      </c>
+      <c r="D98">
+        <v>-0.06220279075377364</v>
+      </c>
+      <c r="E98">
+        <v>0.1602184679050756</v>
+      </c>
+      <c r="F98">
+        <v>0.0490605783642377</v>
+      </c>
+      <c r="G98">
+        <v>-0.277473575278414</v>
+      </c>
+      <c r="H98">
+        <v>0.200568261295123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5291420322850772</v>
+        <v>0.3192540459004287</v>
       </c>
       <c r="C99">
-        <v>0.8369764101793274</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9347319537880185</v>
+      </c>
+      <c r="D99">
+        <v>0.06543169188600212</v>
+      </c>
+      <c r="E99">
+        <v>-0.04198654713335287</v>
+      </c>
+      <c r="F99">
+        <v>0.04880681938362149</v>
+      </c>
+      <c r="G99">
+        <v>-0.01261821783426216</v>
+      </c>
+      <c r="H99">
+        <v>-0.04287693882296841</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03897003205542027</v>
+        <v>0.04677675819567417</v>
       </c>
       <c r="C101">
-        <v>-0.03142941969733998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02317465325000904</v>
+      </c>
+      <c r="D101">
+        <v>-0.006621541000099295</v>
+      </c>
+      <c r="E101">
+        <v>-0.04424410668521796</v>
+      </c>
+      <c r="F101">
+        <v>0.008976379976634582</v>
+      </c>
+      <c r="G101">
+        <v>-0.007158844788865941</v>
+      </c>
+      <c r="H101">
+        <v>-0.09289157065077575</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
